--- a/Results/MultivModels_DOnsetMin#11#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/performances_test.xlsx
+++ b/Results/MultivModels_DOnsetMin#11#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/performances_test.xlsx
@@ -503,46 +503,46 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7923888888888888</v>
+        <v>0.7980222222222221</v>
       </c>
       <c r="C4">
-        <v>0.0102143158339203</v>
+        <v>0.009795284729869236</v>
       </c>
       <c r="D4">
-        <v>0.5080001231328907</v>
+        <v>0.5049904625748459</v>
       </c>
       <c r="E4">
-        <v>0.01198491113195979</v>
+        <v>0.01152289692207811</v>
       </c>
       <c r="F4">
-        <v>0.7513333333333333</v>
+        <v>0.7593333333333332</v>
       </c>
       <c r="G4">
-        <v>0.02207529715605616</v>
+        <v>0.01988843623925241</v>
       </c>
       <c r="H4">
-        <v>0.3874256468260143</v>
+        <v>0.3810546255737332</v>
       </c>
       <c r="I4">
-        <v>0.01128547444047706</v>
+        <v>0.0102691527347557</v>
       </c>
       <c r="J4">
-        <v>0.9195174027700714</v>
+        <v>0.9204855785343203</v>
       </c>
       <c r="K4">
-        <v>0.006592162710918115</v>
+        <v>0.005947418985642439</v>
       </c>
       <c r="L4">
-        <v>0.6975000000000001</v>
+        <v>0.6861666666666666</v>
       </c>
       <c r="M4">
-        <v>0.01200560251882277</v>
+        <v>0.01283008319477852</v>
       </c>
       <c r="N4">
-        <v>0.7082666666666667</v>
+        <v>0.7008</v>
       </c>
       <c r="O4">
-        <v>0.009455402375558641</v>
+        <v>0.01000783289216378</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -550,46 +550,46 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7882627118644068</v>
+        <v>0.7922563559322032</v>
       </c>
       <c r="C5">
-        <v>0.01078712041071384</v>
+        <v>0.008924659463284246</v>
       </c>
       <c r="D5">
-        <v>0.5152464068865149</v>
+        <v>0.5231045260674519</v>
       </c>
       <c r="E5">
-        <v>0.01025888262253261</v>
+        <v>0.009861503683748829</v>
       </c>
       <c r="F5">
-        <v>0.741875</v>
+        <v>0.738125</v>
       </c>
       <c r="G5">
-        <v>0.01723933112487508</v>
+        <v>0.01706179742290714</v>
       </c>
       <c r="H5">
-        <v>0.3977849683659413</v>
+        <v>0.4077939891724934</v>
       </c>
       <c r="I5">
-        <v>0.01015638270960068</v>
+        <v>0.00920063639926938</v>
       </c>
       <c r="J5">
-        <v>0.9087442212654048</v>
+        <v>0.9093620192077025</v>
       </c>
       <c r="K5">
-        <v>0.005324339817135981</v>
+        <v>0.005169989475014347</v>
       </c>
       <c r="L5">
-        <v>0.6894915254237287</v>
+        <v>0.7050847457627119</v>
       </c>
       <c r="M5">
-        <v>0.0124821248064908</v>
+        <v>0.01093164170634497</v>
       </c>
       <c r="N5">
-        <v>0.7006666666666668</v>
+        <v>0.7121333333333334</v>
       </c>
       <c r="O5">
-        <v>0.009335719629150474</v>
+        <v>0.008264975375923855</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -597,46 +597,46 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.868086956521739</v>
+        <v>0.8766956521739131</v>
       </c>
       <c r="C6">
-        <v>0.01173064644581279</v>
+        <v>0.01078876765078818</v>
       </c>
       <c r="D6">
-        <v>0.55589938501471</v>
+        <v>0.5775609389750256</v>
       </c>
       <c r="E6">
-        <v>0.01793739881262957</v>
+        <v>0.02064830537246287</v>
       </c>
       <c r="F6">
-        <v>0.7819999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="G6">
-        <v>0.03341482378104843</v>
+        <v>0.0371480734576265</v>
       </c>
       <c r="H6">
-        <v>0.4439506882006883</v>
+        <v>0.4566807914307914</v>
       </c>
       <c r="I6">
-        <v>0.01813370142720555</v>
+        <v>0.02034438964790747</v>
       </c>
       <c r="J6">
-        <v>0.9451614316297214</v>
+        <v>0.958118755192251</v>
       </c>
       <c r="K6">
-        <v>0.0079415972905863</v>
+        <v>0.008656635627733666</v>
       </c>
       <c r="L6">
-        <v>0.7743478260869565</v>
+        <v>0.7717391304347825</v>
       </c>
       <c r="M6">
-        <v>0.01625318285034572</v>
+        <v>0.0177850784243726</v>
       </c>
       <c r="N6">
-        <v>0.7757142857142858</v>
+        <v>0.782142857142857</v>
       </c>
       <c r="O6">
-        <v>0.01225678950305953</v>
+        <v>0.01319047961087005</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -644,46 +644,46 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8745217391304345</v>
+        <v>0.8859130434782609</v>
       </c>
       <c r="C7">
-        <v>0.01179506858476298</v>
+        <v>0.01198481505705007</v>
       </c>
       <c r="D7">
-        <v>0.6045581798662295</v>
+        <v>0.6266119821870596</v>
       </c>
       <c r="E7">
-        <v>0.02465688276835321</v>
+        <v>0.02449328778179749</v>
       </c>
       <c r="F7">
-        <v>0.828</v>
+        <v>0.87</v>
       </c>
       <c r="G7">
-        <v>0.0356824851655686</v>
+        <v>0.031594276821171</v>
       </c>
       <c r="H7">
-        <v>0.4897936785436786</v>
+        <v>0.5052685253343148</v>
       </c>
       <c r="I7">
-        <v>0.02457915325378593</v>
+        <v>0.02771708766018555</v>
       </c>
       <c r="J7">
-        <v>0.9574282921300892</v>
+        <v>0.9674524231070974</v>
       </c>
       <c r="K7">
-        <v>0.008361162314586834</v>
+        <v>0.007730786384744004</v>
       </c>
       <c r="L7">
-        <v>0.7978260869565216</v>
+        <v>0.7926086956521741</v>
       </c>
       <c r="M7">
-        <v>0.01757245777026806</v>
+        <v>0.02025464698548318</v>
       </c>
       <c r="N7">
-        <v>0.8032142857142857</v>
+        <v>0.8064285714285714</v>
       </c>
       <c r="O7">
-        <v>0.01468259713081621</v>
+        <v>0.0167993112334226</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -691,46 +691,46 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8210833333333332</v>
+        <v>0.8226944444444445</v>
       </c>
       <c r="C8">
-        <v>0.01346152977096104</v>
+        <v>0.01371243718257953</v>
       </c>
       <c r="D8">
-        <v>0.4563131891057923</v>
+        <v>0.4654724887228943</v>
       </c>
       <c r="E8">
-        <v>0.01384902559698586</v>
+        <v>0.01476656792251357</v>
       </c>
       <c r="F8">
-        <v>0.75125</v>
+        <v>0.7575</v>
       </c>
       <c r="G8">
-        <v>0.02786886009129808</v>
+        <v>0.03008305283140933</v>
       </c>
       <c r="H8">
-        <v>0.3326449734147338</v>
+        <v>0.3397175725037988</v>
       </c>
       <c r="I8">
-        <v>0.01184277764917008</v>
+        <v>0.01151545720124109</v>
       </c>
       <c r="J8">
-        <v>0.9437976314338846</v>
+        <v>0.9460556703422087</v>
       </c>
       <c r="K8">
-        <v>0.005793073925863479</v>
+        <v>0.006221306979955488</v>
       </c>
       <c r="L8">
-        <v>0.7237777777777776</v>
+        <v>0.7340000000000001</v>
       </c>
       <c r="M8">
-        <v>0.01425365986564808</v>
+        <v>0.01206262349823639</v>
       </c>
       <c r="N8">
-        <v>0.7279245283018868</v>
+        <v>0.7375471698113207</v>
       </c>
       <c r="O8">
-        <v>0.0113278125561963</v>
+        <v>0.009784306764978878</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -738,46 +738,46 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8111616161616161</v>
+        <v>0.8106565656565656</v>
       </c>
       <c r="C9">
-        <v>0.01172240042631467</v>
+        <v>0.01407529087079873</v>
       </c>
       <c r="D9">
-        <v>0.4909124490730595</v>
+        <v>0.4889736761017844</v>
       </c>
       <c r="E9">
-        <v>0.01389510284610271</v>
+        <v>0.01582060677773856</v>
       </c>
       <c r="F9">
-        <v>0.7200000000000002</v>
+        <v>0.7244444444444443</v>
       </c>
       <c r="G9">
-        <v>0.02649331593881821</v>
+        <v>0.02593139750062146</v>
       </c>
       <c r="H9">
-        <v>0.3782679592845497</v>
+        <v>0.3757994234579677</v>
       </c>
       <c r="I9">
-        <v>0.01313801816699145</v>
+        <v>0.01548962057514569</v>
       </c>
       <c r="J9">
-        <v>0.9307342505531848</v>
+        <v>0.9306258019256661</v>
       </c>
       <c r="K9">
-        <v>0.005973692484881665</v>
+        <v>0.005934196554955973</v>
       </c>
       <c r="L9">
-        <v>0.7509090909090907</v>
+        <v>0.7431818181818183</v>
       </c>
       <c r="M9">
-        <v>0.01304043519699805</v>
+        <v>0.01456696385259815</v>
       </c>
       <c r="N9">
-        <v>0.7456603773584903</v>
+        <v>0.7399999999999999</v>
       </c>
       <c r="O9">
-        <v>0.009919175925180213</v>
+        <v>0.01173782995221129</v>
       </c>
     </row>
   </sheetData>
